--- a/biology/Zoologie/Corcoracidae/Corcoracidae.xlsx
+++ b/biology/Zoologie/Corcoracidae/Corcoracidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Corcoracidae (ou corcoracidés) - également appelés Struthideidae - sont une famille de passereaux constituée de 2 genres et 2 espèces.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,6 +552,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -563,7 +579,9 @@
           <t>Liste alphabétique des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Corcorax Lesson, 1831
 Struthidea Gould, 1837</t>
@@ -594,7 +612,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international :
 Corcorax melanorhamphos – Corbicrave leucoptère
